--- a/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-5-6.xlsx
+++ b/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-5-6.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\Aug2023_3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59BB0C7-77C2-493A-BA3E-9D0405E394E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="116">
   <si>
     <t>status</t>
   </si>
@@ -166,9 +160,24 @@
     <t>bat_e_terminal_revenue</t>
   </si>
   <si>
+    <t>load_bld_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_bld_error_max_pos</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_pos</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -217,29 +226,149 @@
     <t>06-03</t>
   </si>
   <si>
+    <t>06-10</t>
+  </si>
+  <si>
+    <t>06-17</t>
+  </si>
+  <si>
+    <t>06-24</t>
+  </si>
+  <si>
+    <t>07-01</t>
+  </si>
+  <si>
     <t>flex</t>
   </si>
   <si>
     <t>unif</t>
   </si>
   <si>
-    <t>06-10</t>
-  </si>
-  <si>
-    <t>06-17</t>
-  </si>
-  <si>
-    <t>06-24</t>
-  </si>
-  <si>
-    <t>07-01</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-06-05-13-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-13-05-20-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-20-05-27-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-27-06-03-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-03-06-10-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-10-06-17-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-17-06-24-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-24-07-01-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,23 +427,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -356,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,27 +509,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,24 +543,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,18 +718,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -790,49 +873,61 @@
       <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N2">
-        <v>18.646937473554001</v>
+        <v>18.646937473554</v>
       </c>
       <c r="O2">
         <v>1.5</v>
@@ -844,48 +939,147 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S2">
+        <v>323.6282630240755</v>
+      </c>
+      <c r="T2">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U2">
+        <v>494.062119</v>
+      </c>
+      <c r="V2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2">
+        <v>323.6282630240755</v>
+      </c>
+      <c r="X2">
+        <v>305.6282630240755</v>
+      </c>
+      <c r="Y2">
+        <v>18</v>
+      </c>
+      <c r="Z2">
+        <v>18</v>
+      </c>
+      <c r="AA2">
+        <v>438</v>
+      </c>
+      <c r="AB2">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.1344638828104072</v>
+      </c>
+      <c r="AF2">
+        <v>0.1344638828104072</v>
+      </c>
+      <c r="AG2">
+        <v>0.1269850864037804</v>
+      </c>
+      <c r="AI2">
+        <v>80.44848129144766</v>
+      </c>
+      <c r="AJ2">
+        <v>225.1797817326278</v>
+      </c>
+      <c r="AL2">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM2">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN2">
+        <v>528.8169591532589</v>
+      </c>
+      <c r="AO2">
+        <v>2406.804386873079</v>
+      </c>
+      <c r="AP2">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ2">
+        <v>1645.223387666219</v>
+      </c>
+      <c r="AR2">
+        <v>12.33670446332749</v>
+      </c>
+      <c r="AS2">
+        <v>227.3559763999588</v>
+      </c>
+      <c r="AT2">
+        <v>2.176194667330967</v>
+      </c>
+      <c r="AU2">
+        <v>134.0808021524128</v>
+      </c>
+      <c r="AV2">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AW2">
+        <v>6.024258753709678E-16</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>18.8450633076197</v>
@@ -900,51 +1094,150 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S3">
+        <v>324.320677218552</v>
+      </c>
+      <c r="T3">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U3">
+        <v>514.2021475</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3">
+        <v>324.320677218552</v>
+      </c>
+      <c r="X3">
+        <v>306.320677218552</v>
+      </c>
+      <c r="Y3">
+        <v>18</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>438</v>
+      </c>
+      <c r="AB3">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.1347515730764932</v>
+      </c>
+      <c r="AF3">
+        <v>0.1347515730764932</v>
+      </c>
+      <c r="AG3">
+        <v>0.1272727766698664</v>
+      </c>
+      <c r="AI3">
+        <v>81.13754086128817</v>
+      </c>
+      <c r="AJ3">
+        <v>225.1831363572638</v>
+      </c>
+      <c r="AL3">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM3">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN3">
+        <v>528.8169591532593</v>
+      </c>
+      <c r="AO3">
+        <v>2406.804386873079</v>
+      </c>
+      <c r="AP3">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ3">
+        <v>1647.467154848706</v>
+      </c>
+      <c r="AR3">
+        <v>14.99732684837979</v>
+      </c>
+      <c r="AS3">
+        <v>227.6430066748802</v>
+      </c>
+      <c r="AT3">
+        <v>2.459870317616367</v>
+      </c>
+      <c r="AU3">
+        <v>135.2292347688136</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>-7.5220336</v>
+      </c>
+      <c r="AY3">
+        <v>9.457855300000006</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N4">
-        <v>19.043189141685399</v>
+        <v>19.0431891416854</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -956,51 +1249,150 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S4">
+        <v>325.2959951407177</v>
+      </c>
+      <c r="T4">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U4">
+        <v>511.8575028999999</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4">
+        <v>325.2959951407177</v>
+      </c>
+      <c r="X4">
+        <v>307.2959951407177</v>
+      </c>
+      <c r="Y4">
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>18</v>
+      </c>
+      <c r="AA4">
+        <v>438</v>
+      </c>
+      <c r="AB4">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.1351568066415827</v>
+      </c>
+      <c r="AF4">
+        <v>0.1351568066415827</v>
+      </c>
+      <c r="AG4">
+        <v>0.1276780102349559</v>
+      </c>
+      <c r="AI4">
+        <v>82.89287326342851</v>
+      </c>
+      <c r="AJ4">
+        <v>224.4031218772892</v>
+      </c>
+      <c r="AL4">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM4">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN4">
+        <v>528.8169591532587</v>
+      </c>
+      <c r="AO4">
+        <v>2406.804386873078</v>
+      </c>
+      <c r="AP4">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ4">
+        <v>1648.521336901058</v>
+      </c>
+      <c r="AR4">
+        <v>16.00821690379143</v>
+      </c>
+      <c r="AS4">
+        <v>227.1055788381754</v>
+      </c>
+      <c r="AT4">
+        <v>2.702456960886204</v>
+      </c>
+      <c r="AU4">
+        <v>138.1547887723809</v>
+      </c>
+      <c r="AV4">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="AW4">
+        <v>1.882580860534274E-17</v>
+      </c>
+      <c r="AX4">
+        <v>-9.639322283673806</v>
+      </c>
+      <c r="AY4">
+        <v>7.477836689516337</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N5">
-        <v>19.241314975751099</v>
+        <v>19.2413149757511</v>
       </c>
       <c r="O5">
         <v>1.5</v>
@@ -1012,51 +1404,150 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S5">
+        <v>342.1850613619893</v>
+      </c>
+      <c r="T5">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U5">
+        <v>509.6733379000001</v>
+      </c>
+      <c r="V5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W5">
+        <v>342.1850613619893</v>
+      </c>
+      <c r="X5">
+        <v>324.1850613619893</v>
+      </c>
+      <c r="Y5">
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>438</v>
+      </c>
+      <c r="AB5">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.1421740226286343</v>
+      </c>
+      <c r="AF5">
+        <v>0.1421740226286343</v>
+      </c>
+      <c r="AG5">
+        <v>0.1346952262220075</v>
+      </c>
+      <c r="AI5">
+        <v>101.4879814431665</v>
+      </c>
+      <c r="AJ5">
+        <v>222.6970799188229</v>
+      </c>
+      <c r="AL5">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM5">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN5">
+        <v>528.8169591532587</v>
+      </c>
+      <c r="AO5">
+        <v>2406.804386873078</v>
+      </c>
+      <c r="AP5">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ5">
+        <v>1651.444689263156</v>
+      </c>
+      <c r="AR5">
+        <v>18.62416935627758</v>
+      </c>
+      <c r="AS5">
+        <v>225.853761078459</v>
+      </c>
+      <c r="AT5">
+        <v>3.156681159636133</v>
+      </c>
+      <c r="AU5">
+        <v>169.1466357386108</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>-12.7153</v>
+      </c>
+      <c r="AY5">
+        <v>10.3771</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N6">
-        <v>19.439440809816698</v>
+        <v>19.4394408098167</v>
       </c>
       <c r="O6">
         <v>1.5</v>
@@ -1068,51 +1559,150 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S6">
+        <v>392.2405375114246</v>
+      </c>
+      <c r="T6">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U6">
+        <v>188.1169142</v>
+      </c>
+      <c r="V6" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6">
+        <v>392.2405375114246</v>
+      </c>
+      <c r="X6">
+        <v>374.2405375114246</v>
+      </c>
+      <c r="Y6">
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>438</v>
+      </c>
+      <c r="AB6">
+        <v>5.597481561824546</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.1629715068041004</v>
+      </c>
+      <c r="AF6">
+        <v>0.1629715068041004</v>
+      </c>
+      <c r="AG6">
+        <v>0.1554927103974736</v>
+      </c>
+      <c r="AI6">
+        <v>93.84838700017775</v>
+      </c>
+      <c r="AJ6">
+        <v>280.3921505112469</v>
+      </c>
+      <c r="AL6">
+        <v>60.37555886736215</v>
+      </c>
+      <c r="AM6">
+        <v>1877.98742771982</v>
+      </c>
+      <c r="AN6">
+        <v>528.8169591532583</v>
+      </c>
+      <c r="AO6">
+        <v>2406.804386873078</v>
+      </c>
+      <c r="AP6">
+        <v>797.5039720927646</v>
+      </c>
+      <c r="AQ6">
+        <v>1613.060228517769</v>
+      </c>
+      <c r="AR6">
+        <v>5.209940774872866E-15</v>
+      </c>
+      <c r="AS6">
+        <v>280.3921505112469</v>
+      </c>
+      <c r="AT6">
+        <v>4.783488061690589E-16</v>
+      </c>
+      <c r="AU6">
+        <v>156.4139783336296</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N7">
-        <v>19.637566643882401</v>
+        <v>19.6375666438824</v>
       </c>
       <c r="O7">
         <v>1.5</v>
@@ -1124,51 +1714,150 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S7">
+        <v>296.3779652685585</v>
+      </c>
+      <c r="T7">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U7">
+        <v>391.9964502</v>
+      </c>
+      <c r="V7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7">
+        <v>296.3779652685585</v>
+      </c>
+      <c r="X7">
+        <v>278.3779652685585</v>
+      </c>
+      <c r="Y7">
+        <v>18</v>
+      </c>
+      <c r="Z7">
+        <v>18</v>
+      </c>
+      <c r="AA7">
+        <v>438</v>
+      </c>
+      <c r="AB7">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.1259997681989352</v>
+      </c>
+      <c r="AF7">
+        <v>0.1259997681989352</v>
+      </c>
+      <c r="AG7">
+        <v>0.1183473915267163</v>
+      </c>
+      <c r="AI7">
+        <v>84.03615513330485</v>
+      </c>
+      <c r="AJ7">
+        <v>194.3418101352536</v>
+      </c>
+      <c r="AL7">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM7">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN7">
+        <v>465.0079138659938</v>
+      </c>
+      <c r="AO7">
+        <v>2352.21040090027</v>
+      </c>
+      <c r="AP7">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ7">
+        <v>1463.796257430967</v>
+      </c>
+      <c r="AR7">
+        <v>17.0336044136094</v>
+      </c>
+      <c r="AS7">
+        <v>197.3163522473187</v>
+      </c>
+      <c r="AT7">
+        <v>2.974542112065011</v>
+      </c>
+      <c r="AU7">
+        <v>140.0602585555081</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N8">
-        <v>19.835692477948101</v>
+        <v>19.8356924779481</v>
       </c>
       <c r="O8">
         <v>1.5</v>
@@ -1180,48 +1869,147 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S8">
+        <v>294.8443136868344</v>
+      </c>
+      <c r="T8">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U8">
+        <v>484.6871959</v>
+      </c>
+      <c r="V8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8">
+        <v>294.8443136868344</v>
+      </c>
+      <c r="X8">
+        <v>276.8443136868344</v>
+      </c>
+      <c r="Y8">
+        <v>18</v>
+      </c>
+      <c r="Z8">
+        <v>18</v>
+      </c>
+      <c r="AA8">
+        <v>438</v>
+      </c>
+      <c r="AB8">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.1253477637774187</v>
+      </c>
+      <c r="AF8">
+        <v>0.1253477637774187</v>
+      </c>
+      <c r="AG8">
+        <v>0.1176953871051998</v>
+      </c>
+      <c r="AI8">
+        <v>81.96388433280299</v>
+      </c>
+      <c r="AJ8">
+        <v>194.8804293540314</v>
+      </c>
+      <c r="AL8">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM8">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN8">
+        <v>465.0079138659938</v>
+      </c>
+      <c r="AO8">
+        <v>2352.21040090027</v>
+      </c>
+      <c r="AP8">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ8">
+        <v>1463.14012951966</v>
+      </c>
+      <c r="AR8">
+        <v>17.5675112157783</v>
+      </c>
+      <c r="AS8">
+        <v>197.9564237347615</v>
+      </c>
+      <c r="AT8">
+        <v>3.075994380730101</v>
+      </c>
+      <c r="AU8">
+        <v>136.606473888005</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>-4.627442000000002</v>
+      </c>
+      <c r="AY8">
+        <v>6.862418500000004</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>20.0338183120138</v>
@@ -1236,51 +2024,150 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S9">
+        <v>295.7128010471292</v>
+      </c>
+      <c r="T9">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U9">
+        <v>502.8317048000001</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9">
+        <v>295.7128010471292</v>
+      </c>
+      <c r="X9">
+        <v>277.7128010471292</v>
+      </c>
+      <c r="Y9">
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <v>18</v>
+      </c>
+      <c r="AA9">
+        <v>438</v>
+      </c>
+      <c r="AB9">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.1257169855783097</v>
+      </c>
+      <c r="AF9">
+        <v>0.1257169855783097</v>
+      </c>
+      <c r="AG9">
+        <v>0.1180646089060907</v>
+      </c>
+      <c r="AI9">
+        <v>82.95248667874326</v>
+      </c>
+      <c r="AJ9">
+        <v>194.760314368386</v>
+      </c>
+      <c r="AL9">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM9">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN9">
+        <v>465.0079138659936</v>
+      </c>
+      <c r="AO9">
+        <v>2352.21040090027</v>
+      </c>
+      <c r="AP9">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ9">
+        <v>1462.855362733841</v>
+      </c>
+      <c r="AR9">
+        <v>17.26148416011016</v>
+      </c>
+      <c r="AS9">
+        <v>197.7882890109638</v>
+      </c>
+      <c r="AT9">
+        <v>3.027974642577844</v>
+      </c>
+      <c r="AU9">
+        <v>138.2541444645721</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>-10.47481048148478</v>
+      </c>
+      <c r="AY9">
+        <v>9.90196787897365</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N10">
-        <v>20.231944146079499</v>
+        <v>20.2319441460795</v>
       </c>
       <c r="O10">
         <v>1.5</v>
@@ -1292,51 +2179,150 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S10">
+        <v>306.8312242391692</v>
+      </c>
+      <c r="T10">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U10">
+        <v>394.0018046000002</v>
+      </c>
+      <c r="V10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10">
+        <v>306.8312242391692</v>
+      </c>
+      <c r="X10">
+        <v>288.8312242391692</v>
+      </c>
+      <c r="Y10">
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>438</v>
+      </c>
+      <c r="AB10">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.1304437834820111</v>
+      </c>
+      <c r="AF10">
+        <v>0.1304437834820111</v>
+      </c>
+      <c r="AG10">
+        <v>0.1227914068097921</v>
+      </c>
+      <c r="AI10">
+        <v>94.48944166922091</v>
+      </c>
+      <c r="AJ10">
+        <v>194.3417825699483</v>
+      </c>
+      <c r="AL10">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM10">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN10">
+        <v>465.0079138659933</v>
+      </c>
+      <c r="AO10">
+        <v>2352.21040090027</v>
+      </c>
+      <c r="AP10">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ10">
+        <v>1465.837532952307</v>
+      </c>
+      <c r="AR10">
+        <v>19.95040686919183</v>
+      </c>
+      <c r="AS10">
+        <v>197.7744026224563</v>
+      </c>
+      <c r="AT10">
+        <v>3.432620052508049</v>
+      </c>
+      <c r="AU10">
+        <v>157.4824027820349</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>-14.53879999999999</v>
+      </c>
+      <c r="AY10">
+        <v>12.9597</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:53">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N11">
-        <v>20.430069980145198</v>
+        <v>20.4300699801452</v>
       </c>
       <c r="O11">
         <v>1.5</v>
@@ -1348,51 +2334,150 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S11">
+        <v>355.0006308968431</v>
+      </c>
+      <c r="T11">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U11">
+        <v>158.7328383000001</v>
+      </c>
+      <c r="V11" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11">
+        <v>355.0006308968431</v>
+      </c>
+      <c r="X11">
+        <v>337.0006308968431</v>
+      </c>
+      <c r="Y11">
+        <v>18</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>438</v>
+      </c>
+      <c r="AB11">
+        <v>5.57014950553585</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.1508931221382415</v>
+      </c>
+      <c r="AF11">
+        <v>0.1508931221382415</v>
+      </c>
+      <c r="AG11">
+        <v>0.1432422168662518</v>
+      </c>
+      <c r="AI11">
+        <v>86.6501622072673</v>
+      </c>
+      <c r="AJ11">
+        <v>250.3504686895757</v>
+      </c>
+      <c r="AL11">
+        <v>57.80029806259315</v>
+      </c>
+      <c r="AM11">
+        <v>1887.202487034276</v>
+      </c>
+      <c r="AN11">
+        <v>465.4602842456983</v>
+      </c>
+      <c r="AO11">
+        <v>2352.662771279975</v>
+      </c>
+      <c r="AP11">
+        <v>928.5290690575958</v>
+      </c>
+      <c r="AQ11">
+        <v>1427.545723983152</v>
+      </c>
+      <c r="AR11">
+        <v>1.156352708569343E-14</v>
+      </c>
+      <c r="AS11">
+        <v>250.3504686895757</v>
+      </c>
+      <c r="AT11">
+        <v>1.046664394499337E-15</v>
+      </c>
+      <c r="AU11">
+        <v>144.4169370121122</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:53">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N12">
-        <v>20.628195814210802</v>
+        <v>20.6281958142108</v>
       </c>
       <c r="O12">
         <v>1.5</v>
@@ -1404,51 +2489,150 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S12">
+        <v>274.998667519809</v>
+      </c>
+      <c r="T12">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U12">
+        <v>471.4260261999998</v>
+      </c>
+      <c r="V12" t="s">
+        <v>86</v>
+      </c>
+      <c r="W12">
+        <v>274.998667519809</v>
+      </c>
+      <c r="X12">
+        <v>256.998667519809</v>
+      </c>
+      <c r="Y12">
+        <v>18</v>
+      </c>
+      <c r="Z12">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <v>438</v>
+      </c>
+      <c r="AB12">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.1157387408607014</v>
+      </c>
+      <c r="AF12">
+        <v>0.1157387408607014</v>
+      </c>
+      <c r="AG12">
+        <v>0.1081630774791958</v>
+      </c>
+      <c r="AI12">
+        <v>74.54605775626176</v>
+      </c>
+      <c r="AJ12">
+        <v>182.4526097635473</v>
+      </c>
+      <c r="AL12">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM12">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN12">
+        <v>537.4895343532346</v>
+      </c>
+      <c r="AO12">
+        <v>2376.029542698989</v>
+      </c>
+      <c r="AP12">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ12">
+        <v>1375.847695023465</v>
+      </c>
+      <c r="AR12">
+        <v>14.30269699100727</v>
+      </c>
+      <c r="AS12">
+        <v>184.9754819463445</v>
+      </c>
+      <c r="AT12">
+        <v>2.52287218279718</v>
+      </c>
+      <c r="AU12">
+        <v>124.2434295937696</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:53">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N13">
-        <v>20.826321648276501</v>
+        <v>20.8263216482765</v>
       </c>
       <c r="O13">
         <v>1.5</v>
@@ -1460,48 +2644,147 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S13">
+        <v>274.7229915474805</v>
+      </c>
+      <c r="T13">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U13">
+        <v>485.3584579999997</v>
+      </c>
+      <c r="V13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13">
+        <v>274.7229915474805</v>
+      </c>
+      <c r="X13">
+        <v>256.7229915474805</v>
+      </c>
+      <c r="Y13">
+        <v>18</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>438</v>
+      </c>
+      <c r="AB13">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0.1156227170624386</v>
+      </c>
+      <c r="AF13">
+        <v>0.1156227170624386</v>
+      </c>
+      <c r="AG13">
+        <v>0.1080470536809331</v>
+      </c>
+      <c r="AI13">
+        <v>73.95723426861416</v>
+      </c>
+      <c r="AJ13">
+        <v>182.7657572788663</v>
+      </c>
+      <c r="AL13">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM13">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN13">
+        <v>537.4895343532345</v>
+      </c>
+      <c r="AO13">
+        <v>2376.029542698989</v>
+      </c>
+      <c r="AP13">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ13">
+        <v>1374.956392222372</v>
+      </c>
+      <c r="AR13">
+        <v>13.46929612721194</v>
+      </c>
+      <c r="AS13">
+        <v>185.0240170050828</v>
+      </c>
+      <c r="AT13">
+        <v>2.258259726216489</v>
+      </c>
+      <c r="AU13">
+        <v>123.2620571143569</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>-6.2661528</v>
+      </c>
+      <c r="AY13">
+        <v>6.124639999999999</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:53">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>21.0244474823422</v>
@@ -1516,48 +2799,147 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S14">
+        <v>276.849085796983</v>
+      </c>
+      <c r="T14">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U14">
+        <v>482.4707780999997</v>
+      </c>
+      <c r="V14" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14">
+        <v>276.849085796983</v>
+      </c>
+      <c r="X14">
+        <v>258.849085796983</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AA14">
+        <v>438</v>
+      </c>
+      <c r="AB14">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.1165175267486377</v>
+      </c>
+      <c r="AF14">
+        <v>0.1165175267486377</v>
+      </c>
+      <c r="AG14">
+        <v>0.1089418633671322</v>
+      </c>
+      <c r="AI14">
+        <v>76.66018789977461</v>
+      </c>
+      <c r="AJ14">
+        <v>182.1888978972084</v>
+      </c>
+      <c r="AL14">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM14">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN14">
+        <v>537.4895343532352</v>
+      </c>
+      <c r="AO14">
+        <v>2376.02954269899</v>
+      </c>
+      <c r="AP14">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ14">
+        <v>1376.314721096581</v>
+      </c>
+      <c r="AR14">
+        <v>14.23581501802832</v>
+      </c>
+      <c r="AS14">
+        <v>184.5309610669392</v>
+      </c>
+      <c r="AT14">
+        <v>2.342063169730786</v>
+      </c>
+      <c r="AU14">
+        <v>127.7669798329577</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>-10.5266361344828</v>
+      </c>
+      <c r="AY14">
+        <v>9.066977590414581</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:53">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>21.2225733164079</v>
@@ -1572,51 +2954,150 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S15">
+        <v>290.7479566532307</v>
+      </c>
+      <c r="T15">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U15">
+        <v>484.8875411999998</v>
+      </c>
+      <c r="V15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15">
+        <v>290.7479566532307</v>
+      </c>
+      <c r="X15">
+        <v>272.7479566532307</v>
+      </c>
+      <c r="Y15">
+        <v>18</v>
+      </c>
+      <c r="Z15">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>438</v>
+      </c>
+      <c r="AB15">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.1223671471369683</v>
+      </c>
+      <c r="AF15">
+        <v>0.1223671471369683</v>
+      </c>
+      <c r="AG15">
+        <v>0.1147914837554628</v>
+      </c>
+      <c r="AI15">
+        <v>91.53852933661553</v>
+      </c>
+      <c r="AJ15">
+        <v>181.2094273166152</v>
+      </c>
+      <c r="AL15">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM15">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN15">
+        <v>537.4895343532344</v>
+      </c>
+      <c r="AO15">
+        <v>2376.029542698989</v>
+      </c>
+      <c r="AP15">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ15">
+        <v>1377.645175566254</v>
+      </c>
+      <c r="AR15">
+        <v>17.17186855101184</v>
+      </c>
+      <c r="AS15">
+        <v>184.1237255786889</v>
+      </c>
+      <c r="AT15">
+        <v>2.914298262073644</v>
+      </c>
+      <c r="AU15">
+        <v>152.5642155610259</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>-15.08850000000001</v>
+      </c>
+      <c r="AY15">
+        <v>14.1259</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:53">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N16">
-        <v>21.420699150473599</v>
+        <v>21.4206991504736</v>
       </c>
       <c r="O16">
         <v>1.5</v>
@@ -1628,51 +3109,150 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S16">
+        <v>348.8408093850143</v>
+      </c>
+      <c r="T16">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U16">
+        <v>158.8378502999999</v>
+      </c>
+      <c r="V16" t="s">
+        <v>90</v>
+      </c>
+      <c r="W16">
+        <v>348.8408093850143</v>
+      </c>
+      <c r="X16">
+        <v>330.8408093850143</v>
+      </c>
+      <c r="Y16">
+        <v>18</v>
+      </c>
+      <c r="Z16">
+        <v>18</v>
+      </c>
+      <c r="AA16">
+        <v>438</v>
+      </c>
+      <c r="AB16">
+        <v>5.717580227943085</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.1468166969795997</v>
+      </c>
+      <c r="AF16">
+        <v>0.1468166969795997</v>
+      </c>
+      <c r="AG16">
+        <v>0.1392410335980942</v>
+      </c>
+      <c r="AI16">
+        <v>91.50505491254954</v>
+      </c>
+      <c r="AJ16">
+        <v>239.3357544724648</v>
+      </c>
+      <c r="AL16">
+        <v>59.23099850968703</v>
+      </c>
+      <c r="AM16">
+        <v>1838.540008345755</v>
+      </c>
+      <c r="AN16">
+        <v>537.4895343532341</v>
+      </c>
+      <c r="AO16">
+        <v>2376.029542698989</v>
+      </c>
+      <c r="AP16">
+        <v>1038.204329150231</v>
+      </c>
+      <c r="AQ16">
+        <v>1340.886350776932</v>
+      </c>
+      <c r="AR16">
+        <v>1.092816845461138E-14</v>
+      </c>
+      <c r="AS16">
+        <v>239.3357544724648</v>
+      </c>
+      <c r="AT16">
+        <v>8.68732209864807E-16</v>
+      </c>
+      <c r="AU16">
+        <v>152.5084248542492</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:53">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N17">
-        <v>21.618824984539302</v>
+        <v>21.6188249845393</v>
       </c>
       <c r="O17">
         <v>1.5</v>
@@ -1684,51 +3264,150 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S17">
+        <v>255.1237995087117</v>
+      </c>
+      <c r="T17">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U17">
+        <v>422.2973972</v>
+      </c>
+      <c r="V17" t="s">
+        <v>91</v>
+      </c>
+      <c r="W17">
+        <v>255.1237995087117</v>
+      </c>
+      <c r="X17">
+        <v>237.1237995087117</v>
+      </c>
+      <c r="Y17">
+        <v>18</v>
+      </c>
+      <c r="Z17">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>438</v>
+      </c>
+      <c r="AB17">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.111324710595946</v>
+      </c>
+      <c r="AF17">
+        <v>0.111324710595946</v>
+      </c>
+      <c r="AG17">
+        <v>0.1034703089502124</v>
+      </c>
+      <c r="AI17">
+        <v>73.11907920251987</v>
+      </c>
+      <c r="AJ17">
+        <v>179.8030053390648</v>
+      </c>
+      <c r="AL17">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM17">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN17">
+        <v>493.9722011010068</v>
+      </c>
+      <c r="AO17">
+        <v>2291.708625542138</v>
+      </c>
+      <c r="AP17">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ17">
+        <v>1306.270429058523</v>
+      </c>
+      <c r="AR17">
+        <v>24.29405290428579</v>
+      </c>
+      <c r="AS17">
+        <v>182.0289095517515</v>
+      </c>
+      <c r="AT17">
+        <v>2.225904212686709</v>
+      </c>
+      <c r="AU17">
+        <v>127.573049068547</v>
+      </c>
+      <c r="AV17">
+        <v>93.16794917435206</v>
+      </c>
+      <c r="AW17">
+        <v>15.79828503287293</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:53">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N18">
-        <v>21.816950818604901</v>
+        <v>21.8169508186049</v>
       </c>
       <c r="O18">
         <v>1.5</v>
@@ -1740,51 +3419,150 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S18">
+        <v>247.8135509213943</v>
+      </c>
+      <c r="T18">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U18">
+        <v>500.1838845000002</v>
+      </c>
+      <c r="V18" t="s">
+        <v>92</v>
+      </c>
+      <c r="W18">
+        <v>247.8135509213943</v>
+      </c>
+      <c r="X18">
+        <v>229.8135509213943</v>
+      </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>438</v>
+      </c>
+      <c r="AB18">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0.1081010988984369</v>
+      </c>
+      <c r="AF18">
+        <v>0.1081010988984369</v>
+      </c>
+      <c r="AG18">
+        <v>0.1002491482164136</v>
+      </c>
+      <c r="AI18">
+        <v>70.401433855124</v>
+      </c>
+      <c r="AJ18">
+        <v>181.6551271028686</v>
+      </c>
+      <c r="AL18">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM18">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN18">
+        <v>494.687551324554</v>
+      </c>
+      <c r="AO18">
+        <v>2292.423975765685</v>
+      </c>
+      <c r="AP18">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ18">
+        <v>1310.756114710017</v>
+      </c>
+      <c r="AR18">
+        <v>23.960961488179</v>
+      </c>
+      <c r="AS18">
+        <v>183.8724454626524</v>
+      </c>
+      <c r="AT18">
+        <v>2.217318359783852</v>
+      </c>
+      <c r="AU18">
+        <v>120.9593155148515</v>
+      </c>
+      <c r="AV18">
+        <v>131.1747208169932</v>
+      </c>
+      <c r="AW18">
+        <v>22.24301003659826</v>
+      </c>
+      <c r="AX18">
+        <v>-9.371545199999993</v>
+      </c>
+      <c r="AY18">
+        <v>13.92137769999999</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:53">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N19">
-        <v>22.015076652670601</v>
+        <v>22.0150766526706</v>
       </c>
       <c r="O19">
         <v>1.5</v>
@@ -1796,48 +3574,147 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S19">
+        <v>248.4364672571313</v>
+      </c>
+      <c r="T19">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U19">
+        <v>506.2335847999998</v>
+      </c>
+      <c r="V19" t="s">
+        <v>93</v>
+      </c>
+      <c r="W19">
+        <v>248.4364672571313</v>
+      </c>
+      <c r="X19">
+        <v>230.4364672571313</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>438</v>
+      </c>
+      <c r="AB19">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0.1083728271399499</v>
+      </c>
+      <c r="AF19">
+        <v>0.1083728271399499</v>
+      </c>
+      <c r="AG19">
+        <v>0.1005208764579266</v>
+      </c>
+      <c r="AI19">
+        <v>70.44658893945743</v>
+      </c>
+      <c r="AJ19">
+        <v>181.2665111233411</v>
+      </c>
+      <c r="AL19">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM19">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN19">
+        <v>494.6875513245537</v>
+      </c>
+      <c r="AO19">
+        <v>2292.423975765685</v>
+      </c>
+      <c r="AP19">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ19">
+        <v>1310.929527695943</v>
+      </c>
+      <c r="AR19">
+        <v>23.60731383730977</v>
+      </c>
+      <c r="AS19">
+        <v>183.4470022167546</v>
+      </c>
+      <c r="AT19">
+        <v>2.18049109341351</v>
+      </c>
+      <c r="AU19">
+        <v>117.9851932214931</v>
+      </c>
+      <c r="AV19">
+        <v>125.4756601564665</v>
+      </c>
+      <c r="AW19">
+        <v>21.27663280566722</v>
+      </c>
+      <c r="AX19">
+        <v>-14.6629732887026</v>
+      </c>
+      <c r="AY19">
+        <v>9.700251430639128</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:53">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>22.2132024867363</v>
@@ -1852,51 +3729,150 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S20">
+        <v>255.2900787495365</v>
+      </c>
+      <c r="T20">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U20">
+        <v>423.2382240999996</v>
+      </c>
+      <c r="V20" t="s">
+        <v>94</v>
+      </c>
+      <c r="W20">
+        <v>255.2900787495365</v>
+      </c>
+      <c r="X20">
+        <v>237.2900787495365</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>438</v>
+      </c>
+      <c r="AB20">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0.1113798840272221</v>
+      </c>
+      <c r="AF20">
+        <v>0.1113798840272221</v>
+      </c>
+      <c r="AG20">
+        <v>0.1035267080545791</v>
+      </c>
+      <c r="AI20">
+        <v>78.98789611362297</v>
+      </c>
+      <c r="AJ20">
+        <v>178.9133242076624</v>
+      </c>
+      <c r="AL20">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM20">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN20">
+        <v>494.3298762127797</v>
+      </c>
+      <c r="AO20">
+        <v>2292.066300653911</v>
+      </c>
+      <c r="AP20">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ20">
+        <v>1316.512039990881</v>
+      </c>
+      <c r="AR20">
+        <v>32.69696839192417</v>
+      </c>
+      <c r="AS20">
+        <v>182.6055129735894</v>
+      </c>
+      <c r="AT20">
+        <v>3.69218876592708</v>
+      </c>
+      <c r="AU20">
+        <v>140.3758729540552</v>
+      </c>
+      <c r="AV20">
+        <v>121.5510282531509</v>
+      </c>
+      <c r="AW20">
+        <v>20.61114157174882</v>
+      </c>
+      <c r="AX20">
+        <v>-15.5356</v>
+      </c>
+      <c r="AY20">
+        <v>12.5121</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:53">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N21">
-        <v>22.411328320801999</v>
+        <v>22.411328320802</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -1908,51 +3884,150 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S21">
+        <v>321.0181417341131</v>
+      </c>
+      <c r="T21">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U21">
+        <v>153.5591462000002</v>
+      </c>
+      <c r="V21" t="s">
+        <v>95</v>
+      </c>
+      <c r="W21">
+        <v>321.0181417341131</v>
+      </c>
+      <c r="X21">
+        <v>303.0181417341131</v>
+      </c>
+      <c r="Y21">
+        <v>18</v>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>438</v>
+      </c>
+      <c r="AB21">
+        <v>5.847353292220189</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0.1400408290669649</v>
+      </c>
+      <c r="AF21">
+        <v>0.1400408290669649</v>
+      </c>
+      <c r="AG21">
+        <v>0.1321885160805755</v>
+      </c>
+      <c r="AI21">
+        <v>72.59349302816008</v>
+      </c>
+      <c r="AJ21">
+        <v>230.424648705953</v>
+      </c>
+      <c r="AL21">
+        <v>56.22652757078987</v>
+      </c>
+      <c r="AM21">
+        <v>1797.736424441131</v>
+      </c>
+      <c r="AN21">
+        <v>494.5817792779304</v>
+      </c>
+      <c r="AO21">
+        <v>2292.318203719061</v>
+      </c>
+      <c r="AP21">
+        <v>1044.762383893162</v>
+      </c>
+      <c r="AQ21">
+        <v>1281.031543132137</v>
+      </c>
+      <c r="AR21">
+        <v>29.51327903924459</v>
+      </c>
+      <c r="AS21">
+        <v>233.0209122249275</v>
+      </c>
+      <c r="AT21">
+        <v>2.596263518974442</v>
+      </c>
+      <c r="AU21">
+        <v>130.5846625435394</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:53">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N22">
-        <v>22.609454154867699</v>
+        <v>22.6094541548677</v>
       </c>
       <c r="O22">
         <v>1.5</v>
@@ -1964,51 +4039,150 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S22">
+        <v>331.0462179976086</v>
+      </c>
+      <c r="T22">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U22">
+        <v>456.8705273000005</v>
+      </c>
+      <c r="V22" t="s">
+        <v>96</v>
+      </c>
+      <c r="W22">
+        <v>331.0462179976086</v>
+      </c>
+      <c r="X22">
+        <v>313.0462179976086</v>
+      </c>
+      <c r="Y22">
+        <v>18</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>438</v>
+      </c>
+      <c r="AB22">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0.1392869969980316</v>
+      </c>
+      <c r="AF22">
+        <v>0.1392869969980316</v>
+      </c>
+      <c r="AG22">
+        <v>0.131713535017014</v>
+      </c>
+      <c r="AI22">
+        <v>86.30269990638185</v>
+      </c>
+      <c r="AJ22">
+        <v>226.7435180912267</v>
+      </c>
+      <c r="AL22">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM22">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN22">
+        <v>490.7354116609383</v>
+      </c>
+      <c r="AO22">
+        <v>2376.720190200431</v>
+      </c>
+      <c r="AP22">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ22">
+        <v>1665.045182517568</v>
+      </c>
+      <c r="AR22">
+        <v>19.80963374460633</v>
+      </c>
+      <c r="AS22">
+        <v>230.1964754661199</v>
+      </c>
+      <c r="AT22">
+        <v>3.452957374893233</v>
+      </c>
+      <c r="AU22">
+        <v>143.8378331773031</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N23">
-        <v>22.807579988933401</v>
+        <v>22.8075799889334</v>
       </c>
       <c r="O23">
         <v>1.5</v>
@@ -2020,51 +4194,150 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S23">
+        <v>331.0374486332989</v>
+      </c>
+      <c r="T23">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U23">
+        <v>500.9669336999996</v>
+      </c>
+      <c r="V23" t="s">
+        <v>97</v>
+      </c>
+      <c r="W23">
+        <v>331.0374486332989</v>
+      </c>
+      <c r="X23">
+        <v>313.0374486332989</v>
+      </c>
+      <c r="Y23">
+        <v>18</v>
+      </c>
+      <c r="Z23">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>438</v>
+      </c>
+      <c r="AB23">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.1392833073065207</v>
+      </c>
+      <c r="AF23">
+        <v>0.1392833073065207</v>
+      </c>
+      <c r="AG23">
+        <v>0.131709845325503</v>
+      </c>
+      <c r="AI23">
+        <v>85.78410660145205</v>
+      </c>
+      <c r="AJ23">
+        <v>227.2533420318468</v>
+      </c>
+      <c r="AL23">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM23">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN23">
+        <v>490.7354116609384</v>
+      </c>
+      <c r="AO23">
+        <v>2376.720190200431</v>
+      </c>
+      <c r="AP23">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ23">
+        <v>1666.582239974437</v>
+      </c>
+      <c r="AR23">
+        <v>22.06735410343165</v>
+      </c>
+      <c r="AS23">
+        <v>230.9286802834856</v>
+      </c>
+      <c r="AT23">
+        <v>3.675338251638706</v>
+      </c>
+      <c r="AU23">
+        <v>142.9735110024201</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>-6.899980100000008</v>
+      </c>
+      <c r="AY23">
+        <v>9.282916999999998</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N24">
-        <v>23.005705822999101</v>
+        <v>23.0057058229991</v>
       </c>
       <c r="O24">
         <v>1.5</v>
@@ -2076,51 +4349,150 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S24">
+        <v>331.100351336086</v>
+      </c>
+      <c r="T24">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U24">
+        <v>494.2828628999996</v>
+      </c>
+      <c r="V24" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24">
+        <v>331.100351336086</v>
+      </c>
+      <c r="X24">
+        <v>313.100351336086</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <v>438</v>
+      </c>
+      <c r="AB24">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0.1393307415151401</v>
+      </c>
+      <c r="AF24">
+        <v>0.1393307415151401</v>
+      </c>
+      <c r="AG24">
+        <v>0.1317561396243472</v>
+      </c>
+      <c r="AI24">
+        <v>85.68856219400843</v>
+      </c>
+      <c r="AJ24">
+        <v>227.4117891420775</v>
+      </c>
+      <c r="AL24">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM24">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN24">
+        <v>490.3777365491651</v>
+      </c>
+      <c r="AO24">
+        <v>2376.362515088658</v>
+      </c>
+      <c r="AP24">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ24">
+        <v>1667.460848792804</v>
+      </c>
+      <c r="AR24">
+        <v>22.39840180761476</v>
+      </c>
+      <c r="AS24">
+        <v>231.3191293075888</v>
+      </c>
+      <c r="AT24">
+        <v>3.907340165511303</v>
+      </c>
+      <c r="AU24">
+        <v>142.8142703233474</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>-10.95206798345251</v>
+      </c>
+      <c r="AY24">
+        <v>9.873801456341027</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:53">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N25">
-        <v>23.203831657064701</v>
+        <v>23.2038316570647</v>
       </c>
       <c r="O25">
         <v>1.5</v>
@@ -2132,48 +4504,147 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S25">
+        <v>339.0453898140748</v>
+      </c>
+      <c r="T25">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U25">
+        <v>476.8404507999994</v>
+      </c>
+      <c r="V25" t="s">
+        <v>99</v>
+      </c>
+      <c r="W25">
+        <v>339.0453898140748</v>
+      </c>
+      <c r="X25">
+        <v>321.0453898140748</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>18</v>
+      </c>
+      <c r="AA25">
+        <v>438</v>
+      </c>
+      <c r="AB25">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.1426741028194621</v>
+      </c>
+      <c r="AF25">
+        <v>0.1426741028194621</v>
+      </c>
+      <c r="AG25">
+        <v>0.1350995009286692</v>
+      </c>
+      <c r="AI25">
+        <v>93.65272121890625</v>
+      </c>
+      <c r="AJ25">
+        <v>227.3926685951686</v>
+      </c>
+      <c r="AL25">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM25">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN25">
+        <v>490.3777365491653</v>
+      </c>
+      <c r="AO25">
+        <v>2376.362515088658</v>
+      </c>
+      <c r="AP25">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ25">
+        <v>1668.159635507843</v>
+      </c>
+      <c r="AR25">
+        <v>23.55643505932868</v>
+      </c>
+      <c r="AS25">
+        <v>231.4627614038579</v>
+      </c>
+      <c r="AT25">
+        <v>4.070092808689372</v>
+      </c>
+      <c r="AU25">
+        <v>156.0878686981771</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>-15.8574</v>
+      </c>
+      <c r="AY25">
+        <v>11.0714</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:53">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N26">
         <v>23.4019574911304</v>
@@ -2188,51 +4659,150 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S26">
+        <v>396.9079039281009</v>
+      </c>
+      <c r="T26">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U26">
+        <v>143.3337721999997</v>
+      </c>
+      <c r="V26" t="s">
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <v>396.9079039281009</v>
+      </c>
+      <c r="X26">
+        <v>378.9079039281009</v>
+      </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
+      <c r="Z26">
+        <v>18</v>
+      </c>
+      <c r="AA26">
+        <v>438</v>
+      </c>
+      <c r="AB26">
+        <v>5.573745938787744</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0.1670017593557202</v>
+      </c>
+      <c r="AF26">
+        <v>0.1670017593557202</v>
+      </c>
+      <c r="AG26">
+        <v>0.1594281342435644</v>
+      </c>
+      <c r="AI26">
+        <v>101.0650493958472</v>
+      </c>
+      <c r="AJ26">
+        <v>277.8428545322537</v>
+      </c>
+      <c r="AL26">
+        <v>61.23397913561848</v>
+      </c>
+      <c r="AM26">
+        <v>1885.984778539493</v>
+      </c>
+      <c r="AN26">
+        <v>490.6842185976683</v>
+      </c>
+      <c r="AO26">
+        <v>2376.668997137161</v>
+      </c>
+      <c r="AP26">
+        <v>754.0844339633973</v>
+      </c>
+      <c r="AQ26">
+        <v>1633.48447750124</v>
+      </c>
+      <c r="AR26">
+        <v>5.769288267743963</v>
+      </c>
+      <c r="AS26">
+        <v>278.4062224963666</v>
+      </c>
+      <c r="AT26">
+        <v>0.5633679641128264</v>
+      </c>
+      <c r="AU26">
+        <v>168.4417489930787</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:53">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N27">
-        <v>23.600083325196099</v>
+        <v>23.6000833251961</v>
       </c>
       <c r="O27">
         <v>1.5</v>
@@ -2244,51 +4814,150 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S27">
+        <v>237.7558049858827</v>
+      </c>
+      <c r="T27">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U27">
+        <v>404.9747222000005</v>
+      </c>
+      <c r="V27" t="s">
+        <v>101</v>
+      </c>
+      <c r="W27">
+        <v>237.7558049858827</v>
+      </c>
+      <c r="X27">
+        <v>219.7558049858827</v>
+      </c>
+      <c r="Y27">
+        <v>18</v>
+      </c>
+      <c r="Z27">
+        <v>18</v>
+      </c>
+      <c r="AA27">
+        <v>438</v>
+      </c>
+      <c r="AB27">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0.1091077010571747</v>
+      </c>
+      <c r="AF27">
+        <v>0.1091077010571747</v>
+      </c>
+      <c r="AG27">
+        <v>0.1008473827900949</v>
+      </c>
+      <c r="AI27">
+        <v>63.14623135591295</v>
+      </c>
+      <c r="AJ27">
+        <v>173.6133032075567</v>
+      </c>
+      <c r="AL27">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM27">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN27">
+        <v>432.4094041789594</v>
+      </c>
+      <c r="AO27">
+        <v>2179.092792554521</v>
+      </c>
+      <c r="AP27">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ27">
+        <v>1282.129519091574</v>
+      </c>
+      <c r="AR27">
+        <v>12.12896166083933</v>
+      </c>
+      <c r="AS27">
+        <v>175.7528520445288</v>
+      </c>
+      <c r="AT27">
+        <v>2.139548836972057</v>
+      </c>
+      <c r="AU27">
+        <v>105.2437189265216</v>
+      </c>
+      <c r="AV27">
+        <v>100.2768724429683</v>
+      </c>
+      <c r="AW27">
+        <v>17.00372957758702</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:53">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N28">
-        <v>23.798209159261798</v>
+        <v>23.7982091592618</v>
       </c>
       <c r="O28">
         <v>1.5</v>
@@ -2300,51 +4969,150 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S28">
+        <v>245.0941435402247</v>
+      </c>
+      <c r="T28">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U28">
+        <v>410.1922643999997</v>
+      </c>
+      <c r="V28" t="s">
+        <v>102</v>
+      </c>
+      <c r="W28">
+        <v>245.0941435402247</v>
+      </c>
+      <c r="X28">
+        <v>227.0941435402247</v>
+      </c>
+      <c r="Y28">
+        <v>18</v>
+      </c>
+      <c r="Z28">
+        <v>18</v>
+      </c>
+      <c r="AA28">
+        <v>438</v>
+      </c>
+      <c r="AB28">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0.1124753128355329</v>
+      </c>
+      <c r="AF28">
+        <v>0.1124753128355329</v>
+      </c>
+      <c r="AG28">
+        <v>0.1042149945684531</v>
+      </c>
+      <c r="AI28">
+        <v>67.37360696631954</v>
+      </c>
+      <c r="AJ28">
+        <v>173.190940086789</v>
+      </c>
+      <c r="AL28">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM28">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN28">
+        <v>432.4094041789592</v>
+      </c>
+      <c r="AO28">
+        <v>2179.092792554521</v>
+      </c>
+      <c r="AP28">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ28">
+        <v>1275.820697209949</v>
+      </c>
+      <c r="AR28">
+        <v>8.098461712446193</v>
+      </c>
+      <c r="AS28">
+        <v>174.4110005453643</v>
+      </c>
+      <c r="AT28">
+        <v>1.220060458575302</v>
+      </c>
+      <c r="AU28">
+        <v>112.2893449438659</v>
+      </c>
+      <c r="AV28">
+        <v>79.43962697438103</v>
+      </c>
+      <c r="AW28">
+        <v>13.47040351288381</v>
+      </c>
+      <c r="AX28">
+        <v>-11.2707692</v>
+      </c>
+      <c r="AY28">
+        <v>3.861934899999994</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:53">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N29">
-        <v>23.996334993327501</v>
+        <v>23.9963349933275</v>
       </c>
       <c r="O29">
         <v>1.5</v>
@@ -2356,48 +5124,147 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S29">
+        <v>240.9809473962245</v>
+      </c>
+      <c r="T29">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U29">
+        <v>442.2649707</v>
+      </c>
+      <c r="V29" t="s">
+        <v>103</v>
+      </c>
+      <c r="W29">
+        <v>240.9809473962245</v>
+      </c>
+      <c r="X29">
+        <v>222.9809473962245</v>
+      </c>
+      <c r="Y29">
+        <v>18</v>
+      </c>
+      <c r="Z29">
+        <v>18</v>
+      </c>
+      <c r="AA29">
+        <v>438</v>
+      </c>
+      <c r="AB29">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0.1105877400997347</v>
+      </c>
+      <c r="AF29">
+        <v>0.1105877400997347</v>
+      </c>
+      <c r="AG29">
+        <v>0.1023274218326549</v>
+      </c>
+      <c r="AI29">
+        <v>67.68047981670408</v>
+      </c>
+      <c r="AJ29">
+        <v>173.0772077211267</v>
+      </c>
+      <c r="AL29">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM29">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN29">
+        <v>432.4094041789592</v>
+      </c>
+      <c r="AO29">
+        <v>2179.092792554521</v>
+      </c>
+      <c r="AP29">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ29">
+        <v>1281.805314785662</v>
+      </c>
+      <c r="AR29">
+        <v>12.137532423714</v>
+      </c>
+      <c r="AS29">
+        <v>174.9332851887766</v>
+      </c>
+      <c r="AT29">
+        <v>1.856077467649875</v>
+      </c>
+      <c r="AU29">
+        <v>112.8007996945068</v>
+      </c>
+      <c r="AV29">
+        <v>104.8355830112314</v>
+      </c>
+      <c r="AW29">
+        <v>17.77674014160635</v>
+      </c>
+      <c r="AX29">
+        <v>-9.568992029413607</v>
+      </c>
+      <c r="AY29">
+        <v>8.106092659444386</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:53">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N30">
         <v>24.1944608273932</v>
@@ -2412,48 +5279,147 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S30">
+        <v>265.4138074533051</v>
+      </c>
+      <c r="T30">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U30">
+        <v>405.6324712999995</v>
+      </c>
+      <c r="V30" t="s">
+        <v>104</v>
+      </c>
+      <c r="W30">
+        <v>265.4138074533051</v>
+      </c>
+      <c r="X30">
+        <v>247.4138074533051</v>
+      </c>
+      <c r="Y30">
+        <v>18</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>438</v>
+      </c>
+      <c r="AB30">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0.1218001401134295</v>
+      </c>
+      <c r="AF30">
+        <v>0.1218001401134295</v>
+      </c>
+      <c r="AG30">
+        <v>0.1135398218463497</v>
+      </c>
+      <c r="AI30">
+        <v>78.30328808229318</v>
+      </c>
+      <c r="AJ30">
+        <v>169.1105193710119</v>
+      </c>
+      <c r="AL30">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM30">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN30">
+        <v>432.409404178959</v>
+      </c>
+      <c r="AO30">
+        <v>2179.092792554521</v>
+      </c>
+      <c r="AP30">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ30">
+        <v>1270.088638918447</v>
+      </c>
+      <c r="AR30">
+        <v>16.89995201410329</v>
+      </c>
+      <c r="AS30">
+        <v>172.0514661393624</v>
+      </c>
+      <c r="AT30">
+        <v>2.940946768350494</v>
+      </c>
+      <c r="AU30">
+        <v>130.5054801371553</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>-13.7757</v>
+      </c>
+      <c r="AY30">
+        <v>9.130100000000013</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:53">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N31">
         <v>24.3925866614588</v>
@@ -2468,48 +5434,147 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S31">
+        <v>310.5656833172875</v>
+      </c>
+      <c r="T31">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U31">
+        <v>163.4105616999996</v>
+      </c>
+      <c r="V31" t="s">
+        <v>105</v>
+      </c>
+      <c r="W31">
+        <v>310.5656833172875</v>
+      </c>
+      <c r="X31">
+        <v>292.5656833172875</v>
+      </c>
+      <c r="Y31">
+        <v>18</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>438</v>
+      </c>
+      <c r="AB31">
+        <v>6.018262994861534</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0.1425111243286371</v>
+      </c>
+      <c r="AF31">
+        <v>0.1425111243286371</v>
+      </c>
+      <c r="AG31">
+        <v>0.1342513571498702</v>
+      </c>
+      <c r="AI31">
+        <v>67.29792205945621</v>
+      </c>
+      <c r="AJ31">
+        <v>225.2677612578313</v>
+      </c>
+      <c r="AL31">
+        <v>49.50223546944859</v>
+      </c>
+      <c r="AM31">
+        <v>1746.683388375562</v>
+      </c>
+      <c r="AN31">
+        <v>432.554792365395</v>
+      </c>
+      <c r="AO31">
+        <v>2179.238180740957</v>
+      </c>
+      <c r="AP31">
+        <v>946.5462035932005</v>
+      </c>
+      <c r="AQ31">
+        <v>1236.367089874108</v>
+      </c>
+      <c r="AR31">
+        <v>1.283424434785755E-14</v>
+      </c>
+      <c r="AS31">
+        <v>225.2677612578313</v>
+      </c>
+      <c r="AT31">
+        <v>1.172770375596504E-15</v>
+      </c>
+      <c r="AU31">
+        <v>112.163203432427</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:53">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N32">
         <v>24.5907124955245</v>
@@ -2524,51 +5589,150 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S32">
+        <v>202.5664310244779</v>
+      </c>
+      <c r="T32">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U32">
+        <v>266.2546140000004</v>
+      </c>
+      <c r="V32" t="s">
+        <v>106</v>
+      </c>
+      <c r="W32">
+        <v>202.5664310244779</v>
+      </c>
+      <c r="X32">
+        <v>184.5664310244779</v>
+      </c>
+      <c r="Y32">
+        <v>18</v>
+      </c>
+      <c r="Z32">
+        <v>18</v>
+      </c>
+      <c r="AA32">
+        <v>438</v>
+      </c>
+      <c r="AB32">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0.1092727855614901</v>
+      </c>
+      <c r="AF32">
+        <v>0.1092727855614901</v>
+      </c>
+      <c r="AG32">
+        <v>0.09956283445972465</v>
+      </c>
+      <c r="AI32">
+        <v>64.17489493251932</v>
+      </c>
+      <c r="AJ32">
+        <v>146.4414670307012</v>
+      </c>
+      <c r="AL32">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM32">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN32">
+        <v>317.2594786946077</v>
+      </c>
+      <c r="AO32">
+        <v>1853.768346652877</v>
+      </c>
+      <c r="AP32">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ32">
+        <v>1191.084581498944</v>
+      </c>
+      <c r="AR32">
+        <v>71.25567342679014</v>
+      </c>
+      <c r="AS32">
+        <v>158.7545974103539</v>
+      </c>
+      <c r="AT32">
+        <v>12.31313037965273</v>
+      </c>
+      <c r="AU32">
+        <v>106.9581582208656</v>
+      </c>
+      <c r="AV32">
+        <v>153.6254496387446</v>
+      </c>
+      <c r="AW32">
+        <v>26.04993093874262</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:53">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N33">
-        <v>24.788838329590199</v>
+        <v>24.7888383295902</v>
       </c>
       <c r="O33">
         <v>1.5</v>
@@ -2580,51 +5744,150 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S33">
+        <v>207.88650407891</v>
+      </c>
+      <c r="T33">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U33">
+        <v>347.5109109000005</v>
+      </c>
+      <c r="V33" t="s">
+        <v>107</v>
+      </c>
+      <c r="W33">
+        <v>207.88650407891</v>
+      </c>
+      <c r="X33">
+        <v>189.88650407891</v>
+      </c>
+      <c r="Y33">
+        <v>18</v>
+      </c>
+      <c r="Z33">
+        <v>18</v>
+      </c>
+      <c r="AA33">
+        <v>438</v>
+      </c>
+      <c r="AB33">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.1121426549623988</v>
+      </c>
+      <c r="AF33">
+        <v>0.1121426549623988</v>
+      </c>
+      <c r="AG33">
+        <v>0.1024327038606333</v>
+      </c>
+      <c r="AI33">
+        <v>65.68939098499291</v>
+      </c>
+      <c r="AJ33">
+        <v>146.2477765691679</v>
+      </c>
+      <c r="AL33">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM33">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN33">
+        <v>317.2594786946074</v>
+      </c>
+      <c r="AO33">
+        <v>1853.768346652877</v>
+      </c>
+      <c r="AP33">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ33">
+        <v>1190.912037704139</v>
+      </c>
+      <c r="AR33">
+        <v>73.00139088374219</v>
+      </c>
+      <c r="AS33">
+        <v>158.6677581694288</v>
+      </c>
+      <c r="AT33">
+        <v>12.41998160026088</v>
+      </c>
+      <c r="AU33">
+        <v>109.4823183083215</v>
+      </c>
+      <c r="AV33">
+        <v>130.0403866399485</v>
+      </c>
+      <c r="AW33">
+        <v>22.05066347525079</v>
+      </c>
+      <c r="AX33">
+        <v>-11.0031211</v>
+      </c>
+      <c r="AY33">
+        <v>5.9886707</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:53">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N34">
-        <v>24.986964163655902</v>
+        <v>24.9869641636559</v>
       </c>
       <c r="O34">
         <v>1.5</v>
@@ -2636,51 +5899,150 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S34">
+        <v>213.9123442701465</v>
+      </c>
+      <c r="T34">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U34">
+        <v>335.7289024000002</v>
+      </c>
+      <c r="V34" t="s">
+        <v>108</v>
+      </c>
+      <c r="W34">
+        <v>213.9123442701465</v>
+      </c>
+      <c r="X34">
+        <v>195.9123442701465</v>
+      </c>
+      <c r="Y34">
+        <v>18</v>
+      </c>
+      <c r="Z34">
+        <v>18</v>
+      </c>
+      <c r="AA34">
+        <v>438</v>
+      </c>
+      <c r="AB34">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.1153932446070632</v>
+      </c>
+      <c r="AF34">
+        <v>0.1153932446070632</v>
+      </c>
+      <c r="AG34">
+        <v>0.1056832935052977</v>
+      </c>
+      <c r="AI34">
+        <v>70.4385953681002</v>
+      </c>
+      <c r="AJ34">
+        <v>145.3330520198813</v>
+      </c>
+      <c r="AL34">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM34">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN34">
+        <v>317.2594786946073</v>
+      </c>
+      <c r="AO34">
+        <v>1853.768346652877</v>
+      </c>
+      <c r="AP34">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ34">
+        <v>1183.639666506771</v>
+      </c>
+      <c r="AR34">
+        <v>67.17155518167212</v>
+      </c>
+      <c r="AS34">
+        <v>156.0617785311354</v>
+      </c>
+      <c r="AT34">
+        <v>10.72872651125402</v>
+      </c>
+      <c r="AU34">
+        <v>117.3976589468337</v>
+      </c>
+      <c r="AV34">
+        <v>117.1171769385424</v>
+      </c>
+      <c r="AW34">
+        <v>19.85930311783502</v>
+      </c>
+      <c r="AX34">
+        <v>-12.67179709055496</v>
+      </c>
+      <c r="AY34">
+        <v>6.595375431376631</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:53">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N35">
-        <v>25.185089997721601</v>
+        <v>25.1850899977216</v>
       </c>
       <c r="O35">
         <v>1.5</v>
@@ -2692,48 +6054,147 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S35">
+        <v>235.6660892480208</v>
+      </c>
+      <c r="T35">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U35">
+        <v>266.4430929</v>
+      </c>
+      <c r="V35" t="s">
+        <v>109</v>
+      </c>
+      <c r="W35">
+        <v>235.6660892480208</v>
+      </c>
+      <c r="X35">
+        <v>217.6660892480208</v>
+      </c>
+      <c r="Y35">
+        <v>18</v>
+      </c>
+      <c r="Z35">
+        <v>18</v>
+      </c>
+      <c r="AA35">
+        <v>438</v>
+      </c>
+      <c r="AB35">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0.1271281223856984</v>
+      </c>
+      <c r="AF35">
+        <v>0.1271281223856984</v>
+      </c>
+      <c r="AG35">
+        <v>0.117418171283933</v>
+      </c>
+      <c r="AI35">
+        <v>76.26086922846477</v>
+      </c>
+      <c r="AJ35">
+        <v>141.405220019556</v>
+      </c>
+      <c r="AL35">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM35">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN35">
+        <v>317.2594786946075</v>
+      </c>
+      <c r="AO35">
+        <v>1853.768346652877</v>
+      </c>
+      <c r="AP35">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ35">
+        <v>1183.683802589552</v>
+      </c>
+      <c r="AR35">
+        <v>87.4802699210114</v>
+      </c>
+      <c r="AS35">
+        <v>156.4477006663115</v>
+      </c>
+      <c r="AT35">
+        <v>15.04248064675548</v>
+      </c>
+      <c r="AU35">
+        <v>127.101448714108</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>-9.887699999999995</v>
+      </c>
+      <c r="AY35">
+        <v>8.685899999999997</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:53">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>25.3832158317873</v>
@@ -2748,48 +6209,147 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S36">
+        <v>264.7358885391292</v>
+      </c>
+      <c r="T36">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U36">
+        <v>139.2791062000006</v>
+      </c>
+      <c r="V36" t="s">
+        <v>110</v>
+      </c>
+      <c r="W36">
+        <v>264.7358885391292</v>
+      </c>
+      <c r="X36">
+        <v>246.7358885391292</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="Z36">
+        <v>18</v>
+      </c>
+      <c r="AA36">
+        <v>438</v>
+      </c>
+      <c r="AB36">
+        <v>6.841483455912926</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0.1428095851442983</v>
+      </c>
+      <c r="AF36">
+        <v>0.1428095851442983</v>
+      </c>
+      <c r="AG36">
+        <v>0.1330996340425328</v>
+      </c>
+      <c r="AI36">
+        <v>65.8801048560413</v>
+      </c>
+      <c r="AJ36">
+        <v>180.8557836830879</v>
+      </c>
+      <c r="AL36">
+        <v>33.90760059612519</v>
+      </c>
+      <c r="AM36">
+        <v>1536.50886795827</v>
+      </c>
+      <c r="AN36">
+        <v>317.2594786946085</v>
+      </c>
+      <c r="AO36">
+        <v>1853.768346652878</v>
+      </c>
+      <c r="AP36">
+        <v>778.1263206737931</v>
+      </c>
+      <c r="AQ36">
+        <v>1081.036808910951</v>
+      </c>
+      <c r="AR36">
+        <v>7.94198288852571E-15</v>
+      </c>
+      <c r="AS36">
+        <v>180.8557836830879</v>
+      </c>
+      <c r="AT36">
+        <v>7.854366933299495E-16</v>
+      </c>
+      <c r="AU36">
+        <v>109.8001747600688</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:53">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N37">
         <v>25.5813416658529</v>
@@ -2804,51 +6364,150 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S37">
+        <v>224.6716165534322</v>
+      </c>
+      <c r="T37">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U37">
+        <v>347.8927334999998</v>
+      </c>
+      <c r="V37" t="s">
+        <v>111</v>
+      </c>
+      <c r="W37">
+        <v>224.6716165534322</v>
+      </c>
+      <c r="X37">
+        <v>206.6716165534322</v>
+      </c>
+      <c r="Y37">
+        <v>18</v>
+      </c>
+      <c r="Z37">
+        <v>18</v>
+      </c>
+      <c r="AA37">
+        <v>438</v>
+      </c>
+      <c r="AB37">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0.1174794440398127</v>
+      </c>
+      <c r="AF37">
+        <v>0.1174794440398127</v>
+      </c>
+      <c r="AG37">
+        <v>0.1080673517374737</v>
+      </c>
+      <c r="AI37">
+        <v>68.86199065021117</v>
+      </c>
+      <c r="AJ37">
+        <v>137.809625903221</v>
+      </c>
+      <c r="AL37">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM37">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN37">
+        <v>344.3013716962195</v>
+      </c>
+      <c r="AO37">
+        <v>1912.433433693242</v>
+      </c>
+      <c r="AP37">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ37">
+        <v>1134.896874264623</v>
+      </c>
+      <c r="AR37">
+        <v>88.20093877531652</v>
+      </c>
+      <c r="AS37">
+        <v>152.0737586788335</v>
+      </c>
+      <c r="AT37">
+        <v>14.26413277561253</v>
+      </c>
+      <c r="AU37">
+        <v>114.7699844170186</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:53">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N38">
-        <v>25.779467499918599</v>
+        <v>25.7794674999186</v>
       </c>
       <c r="O38">
         <v>1.5</v>
@@ -2860,51 +6519,150 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S38">
+        <v>223.4221016510401</v>
+      </c>
+      <c r="T38">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U38">
+        <v>362.2636048999993</v>
+      </c>
+      <c r="V38" t="s">
+        <v>112</v>
+      </c>
+      <c r="W38">
+        <v>223.4221016510401</v>
+      </c>
+      <c r="X38">
+        <v>205.4221016510401</v>
+      </c>
+      <c r="Y38">
+        <v>18</v>
+      </c>
+      <c r="Z38">
+        <v>18</v>
+      </c>
+      <c r="AA38">
+        <v>438</v>
+      </c>
+      <c r="AB38">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0.1168260801734537</v>
+      </c>
+      <c r="AF38">
+        <v>0.1168260801734537</v>
+      </c>
+      <c r="AG38">
+        <v>0.1074139878711147</v>
+      </c>
+      <c r="AI38">
+        <v>66.48177428052473</v>
+      </c>
+      <c r="AJ38">
+        <v>139.0275145830546</v>
+      </c>
+      <c r="AL38">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM38">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN38">
+        <v>344.3013716962196</v>
+      </c>
+      <c r="AO38">
+        <v>1912.433433693242</v>
+      </c>
+      <c r="AP38">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ38">
+        <v>1130.182377730405</v>
+      </c>
+      <c r="AR38">
+        <v>83.40655299807794</v>
+      </c>
+      <c r="AS38">
+        <v>152.4720643482337</v>
+      </c>
+      <c r="AT38">
+        <v>13.44454976517911</v>
+      </c>
+      <c r="AU38">
+        <v>110.8029571342079</v>
+      </c>
+      <c r="AV38">
+        <v>0.514173137755102</v>
+      </c>
+      <c r="AW38">
+        <v>0.08718721253915838</v>
+      </c>
+      <c r="AX38">
+        <v>-6.079307200000002</v>
+      </c>
+      <c r="AY38">
+        <v>9.036564100000007</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:53">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N39">
-        <v>25.977593333984299</v>
+        <v>25.9775933339843</v>
       </c>
       <c r="O39">
         <v>1.5</v>
@@ -2916,51 +6674,150 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S39">
+        <v>227.5376894860862</v>
+      </c>
+      <c r="T39">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U39">
+        <v>353.5065101999999</v>
+      </c>
+      <c r="V39" t="s">
+        <v>113</v>
+      </c>
+      <c r="W39">
+        <v>227.5376894860862</v>
+      </c>
+      <c r="X39">
+        <v>209.5376894860862</v>
+      </c>
+      <c r="Y39">
+        <v>18</v>
+      </c>
+      <c r="Z39">
+        <v>18</v>
+      </c>
+      <c r="AA39">
+        <v>438</v>
+      </c>
+      <c r="AB39">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0.1189780964280003</v>
+      </c>
+      <c r="AF39">
+        <v>0.1189780964280003</v>
+      </c>
+      <c r="AG39">
+        <v>0.1095660041256612</v>
+      </c>
+      <c r="AI39">
+        <v>71.39388989032904</v>
+      </c>
+      <c r="AJ39">
+        <v>138.1437995957572</v>
+      </c>
+      <c r="AL39">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM39">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN39">
+        <v>344.3013716962198</v>
+      </c>
+      <c r="AO39">
+        <v>1912.433433693242</v>
+      </c>
+      <c r="AP39">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ39">
+        <v>1133.194544383253</v>
+      </c>
+      <c r="AR39">
+        <v>84.78201686199256</v>
+      </c>
+      <c r="AS39">
+        <v>151.3336038124592</v>
+      </c>
+      <c r="AT39">
+        <v>13.18980421670197</v>
+      </c>
+      <c r="AU39">
+        <v>118.9898164838817</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>-10.6110422115222</v>
+      </c>
+      <c r="AY39">
+        <v>8.230714431104346</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:53">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N40">
-        <v>26.175719168050001</v>
+        <v>26.17571916805</v>
       </c>
       <c r="O40">
         <v>1.5</v>
@@ -2972,51 +6829,150 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="S40">
+        <v>233.406353118377</v>
+      </c>
+      <c r="T40">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U40">
+        <v>346.3325227000005</v>
+      </c>
+      <c r="V40" t="s">
+        <v>114</v>
+      </c>
+      <c r="W40">
+        <v>233.406353118377</v>
+      </c>
+      <c r="X40">
+        <v>215.406353118377</v>
+      </c>
+      <c r="Y40">
+        <v>18</v>
+      </c>
+      <c r="Z40">
+        <v>18</v>
+      </c>
+      <c r="AA40">
+        <v>438</v>
+      </c>
+      <c r="AB40">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0.122046785527917</v>
+      </c>
+      <c r="AF40">
+        <v>0.122046785527917</v>
+      </c>
+      <c r="AG40">
+        <v>0.1126346932255779</v>
+      </c>
+      <c r="AI40">
+        <v>77.11914912794664</v>
+      </c>
+      <c r="AJ40">
+        <v>138.2872039904303</v>
+      </c>
+      <c r="AL40">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM40">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN40">
+        <v>344.3013716962197</v>
+      </c>
+      <c r="AO40">
+        <v>1912.433433693242</v>
+      </c>
+      <c r="AP40">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ40">
+        <v>1138.681997985032</v>
+      </c>
+      <c r="AR40">
+        <v>92.12061988856337</v>
+      </c>
+      <c r="AS40">
+        <v>153.1479189707319</v>
+      </c>
+      <c r="AT40">
+        <v>14.86071498030157</v>
+      </c>
+      <c r="AU40">
+        <v>128.5319152132444</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>-11.7248</v>
+      </c>
+      <c r="AY40">
+        <v>11.19670000000001</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:53">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N41">
-        <v>26.373845002115701</v>
+        <v>26.3738450021157</v>
       </c>
       <c r="O41">
         <v>1.5</v>
@@ -3028,7 +6984,106 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S41">
+        <v>243.5065925097954</v>
+      </c>
+      <c r="T41">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U41">
+        <v>47.63857430000007</v>
+      </c>
+      <c r="V41" t="s">
+        <v>115</v>
+      </c>
+      <c r="W41">
+        <v>243.5065925097954</v>
+      </c>
+      <c r="X41">
+        <v>225.5065925097954</v>
+      </c>
+      <c r="Y41">
+        <v>18</v>
+      </c>
+      <c r="Z41">
+        <v>18</v>
+      </c>
+      <c r="AA41">
+        <v>438</v>
+      </c>
+      <c r="AB41">
+        <v>6.703517040913586</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0.1273445796341305</v>
+      </c>
+      <c r="AF41">
+        <v>0.1273445796341305</v>
+      </c>
+      <c r="AG41">
+        <v>0.1179312721347775</v>
+      </c>
+      <c r="AI41">
+        <v>64.9565352047964</v>
+      </c>
+      <c r="AJ41">
+        <v>174.6685242052006</v>
+      </c>
+      <c r="AL41">
+        <v>37.77049180327869</v>
+      </c>
+      <c r="AM41">
+        <v>1568.132061997022</v>
+      </c>
+      <c r="AN41">
+        <v>344.0544889296542</v>
+      </c>
+      <c r="AO41">
+        <v>1912.186550926677</v>
+      </c>
+      <c r="AP41">
+        <v>887.7146236615458</v>
+      </c>
+      <c r="AQ41">
+        <v>1063.496747008306</v>
+      </c>
+      <c r="AR41">
+        <v>20.79723441019916</v>
+      </c>
+      <c r="AS41">
+        <v>176.6362913133325</v>
+      </c>
+      <c r="AT41">
+        <v>1.967767108131946</v>
+      </c>
+      <c r="AU41">
+        <v>108.260892007994</v>
+      </c>
+      <c r="AV41">
+        <v>83.26148084052774</v>
+      </c>
+      <c r="AW41">
+        <v>14.1184669002015</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
